--- a/resources/case/CaseList.xlsx
+++ b/resources/case/CaseList.xlsx
@@ -46,11 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>basic2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic2.xls</t>
+    <t>getevaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getevaluation.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,10 +379,15 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
